--- a/Desktop file/20220113/4pi.xlsx
+++ b/Desktop file/20220113/4pi.xlsx
@@ -743,7 +743,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -903,20 +903,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5">
         <v>17</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5"/>
@@ -936,20 +936,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6"/>
@@ -1002,7 +1002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1010,16 +1010,16 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" s="21">
+      <c r="F8">
         <v>137</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="H8" s="21">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
       <c r="J8"/>
@@ -1035,7 +1035,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1047,16 +1047,16 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="17">
+      <c r="J9">
         <v>125</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9"/>
@@ -1068,7 +1068,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1080,16 +1080,16 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="21">
+      <c r="J10">
         <v>14</v>
       </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="21">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10"/>
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1113,16 +1113,16 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="21">
+      <c r="J11">
         <v>14</v>
       </c>
-      <c r="K11" s="21">
-        <v>0</v>
-      </c>
-      <c r="L11" s="21">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11"/>
@@ -1167,20 +1167,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="21">
-        <v>0</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="F13"/>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1216,16 +1216,16 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="21">
+      <c r="N14">
         <v>64</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" s="13">
@@ -1233,20 +1233,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="F15"/>
@@ -1266,20 +1266,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="C16" s="21">
-        <v>0</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="F16"/>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1311,16 +1311,16 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="21">
+      <c r="J17">
         <v>12</v>
       </c>
-      <c r="K17" s="21">
-        <v>0</v>
-      </c>
-      <c r="L17" s="21">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17"/>
@@ -1398,7 +1398,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -1414,23 +1414,23 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" s="21">
+      <c r="N20">
         <v>183</v>
       </c>
-      <c r="O20" s="21">
-        <v>0</v>
-      </c>
-      <c r="P20" s="21">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>5</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>

--- a/Desktop file/20220113/4pi.xlsx
+++ b/Desktop file/20220113/4pi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Services</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Azure Sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>governance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -391,7 +403,6 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,13 +748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,62 +774,62 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="29" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="29"/>
       <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -870,20 +881,20 @@
       </c>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4">
         <v>29</v>
       </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4"/>
@@ -903,7 +914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -936,7 +947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -969,20 +980,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7">
         <v>42</v>
       </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="F7"/>
@@ -1002,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -1142,16 +1153,16 @@
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="21">
+      <c r="F12">
         <v>59</v>
       </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12"/>
@@ -1163,11 +1174,11 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" s="13">
-        <f t="shared" ref="R12:R22" si="1">SUM(B12:Q12)</f>
+        <f t="shared" ref="R12:R25" si="1">SUM(B12:Q12)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1348,16 +1359,16 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="21">
+      <c r="N18">
         <v>183</v>
       </c>
-      <c r="O18" s="21">
-        <v>0</v>
-      </c>
-      <c r="P18" s="21">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>5</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" s="13">
@@ -1365,7 +1376,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1381,16 +1392,16 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="21">
+      <c r="N19">
         <v>183</v>
       </c>
-      <c r="O19" s="21">
-        <v>0</v>
-      </c>
-      <c r="P19" s="21">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>5</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" s="13">
@@ -1398,9 +1409,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -1415,169 +1426,244 @@
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23">
         <v>183</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="12">
-        <f t="shared" ref="B21:H21" si="4">SUM(B4:B20)</f>
+      <c r="B24" s="12">
+        <f t="shared" ref="B24:H24" si="4">SUM(B4:B23)</f>
         <v>114</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C24" s="12">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D24" s="12">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E24" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F24" s="12">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G24" s="12">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H24" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I24" s="9">
         <f>SUM(I4:I9)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="12">
-        <f>SUM(J5:J20)</f>
+      <c r="J24" s="12">
+        <f>SUM(J5:J23)</f>
         <v>165</v>
       </c>
-      <c r="K21" s="9">
-        <f>SUM(K4:K20)</f>
+      <c r="K24" s="9">
+        <f>SUM(K4:K23)</f>
         <v>2</v>
       </c>
-      <c r="L21" s="12">
-        <f>SUM(L5:L20)</f>
+      <c r="L24" s="12">
+        <f>SUM(L5:L23)</f>
         <v>9</v>
       </c>
-      <c r="M21" s="9">
-        <f>SUM(M4:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="12">
-        <f>SUM(N5:N20)</f>
-        <v>613</v>
-      </c>
-      <c r="O21" s="12">
-        <f>SUM(O5:O20)</f>
+      <c r="M24" s="9">
+        <f>SUM(M4:M23)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <f>SUM(N5:N23)</f>
+        <v>616</v>
+      </c>
+      <c r="O24" s="12">
+        <f>SUM(O5:O23)</f>
+        <v>6</v>
+      </c>
+      <c r="P24" s="12">
+        <f>SUM(P5:P23)</f>
+        <v>19</v>
+      </c>
+      <c r="Q24" s="12">
+        <f>SUM(Q5:Q23)</f>
         <v>3</v>
       </c>
-      <c r="P21" s="12">
-        <f>SUM(P5:P20)</f>
-        <v>16</v>
-      </c>
-      <c r="Q21" s="12">
-        <f>SUM(Q5:Q20)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="13">
+      <c r="R24" s="13">
         <f t="shared" si="1"/>
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="26">
-        <f>SUM(B21:E21)</f>
+      <c r="B25" s="25">
+        <f>SUM(B24:E24)</f>
         <v>128</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="26">
-        <f t="shared" ref="F22" si="5">SUM(F21:I21)</f>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25">
+        <f t="shared" ref="F25" si="5">SUM(F24:I24)</f>
         <v>207</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="26">
-        <f t="shared" ref="J22" si="6">SUM(J21:M21)</f>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="25">
+        <f t="shared" ref="J25" si="6">SUM(J24:M24)</f>
         <v>176</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="26">
-        <f>SUM(N21:Q21)</f>
-        <v>632</v>
-      </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="6">
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="25">
+        <f>SUM(N24:Q24)</f>
+        <v>644</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="6">
         <f t="shared" si="1"/>
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19">
         <v>44466</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="19">
+    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="19">
         <v>44487</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29" s="15"/>
-    </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31"/>
+      <c r="B31"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A32"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -1585,26 +1671,41 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
       <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N25:Q25"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J25:M25"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Desktop file/20220113/4pi.xlsx
+++ b/Desktop file/20220113/4pi.xlsx
@@ -412,7 +412,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,10 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +754,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,38 +793,38 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="28" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="28" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="29"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="25"/>
       <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
@@ -885,16 +885,16 @@
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="16">
         <v>29</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
       <c r="F4"/>
@@ -918,16 +918,16 @@
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="16">
         <v>0</v>
       </c>
       <c r="F5"/>
@@ -951,16 +951,16 @@
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
         <v>0</v>
       </c>
       <c r="F6"/>
@@ -1021,16 +1021,16 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8">
+      <c r="F8" s="16">
         <v>137</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="16">
         <v>11</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
         <v>0</v>
       </c>
       <c r="J8"/>
@@ -1058,16 +1058,16 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9">
+      <c r="J9" s="16">
         <v>125</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="16">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="16">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="16">
         <v>0</v>
       </c>
       <c r="N9"/>
@@ -1091,16 +1091,16 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10">
+      <c r="J10" s="16">
         <v>14</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
         <v>0</v>
       </c>
       <c r="N10"/>
@@ -1124,16 +1124,16 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11">
+      <c r="J11" s="16">
         <v>14</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="16">
         <v>0</v>
       </c>
       <c r="N11"/>
@@ -1153,16 +1153,16 @@
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12">
+      <c r="F12" s="16">
         <v>59</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
         <v>0</v>
       </c>
       <c r="J12"/>
@@ -1182,16 +1182,16 @@
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13"/>
@@ -1248,16 +1248,16 @@
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="16">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="16">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15"/>
@@ -1281,16 +1281,16 @@
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="16">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
         <v>0</v>
       </c>
       <c r="F16"/>
@@ -1322,16 +1322,16 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17">
+      <c r="J17" s="16">
         <v>12</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1</v>
+      </c>
+      <c r="M17" s="16">
         <v>0</v>
       </c>
       <c r="N17"/>
@@ -1392,16 +1392,16 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19">
+      <c r="N19" s="16">
         <v>183</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
         <v>5</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="16">
         <v>0</v>
       </c>
       <c r="R19" s="13">
@@ -1515,16 +1515,16 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23">
+      <c r="N23" s="16">
         <v>183</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
         <v>5</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="16">
         <v>0</v>
       </c>
       <c r="R23" s="13">
@@ -1608,34 +1608,34 @@
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="26">
         <f>SUM(B24:E24)</f>
         <v>128</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="26">
         <f t="shared" ref="F25" si="5">SUM(F24:I24)</f>
         <v>207</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="25">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="26">
         <f t="shared" ref="J25" si="6">SUM(J24:M24)</f>
         <v>176</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="25">
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="26">
         <f>SUM(N24:Q24)</f>
         <v>644</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28"/>
       <c r="R25" s="6">
         <f t="shared" si="1"/>
         <v>1155</v>
@@ -1690,6 +1690,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -1698,14 +1706,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="J25:M25"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Desktop file/20220113/4pi.xlsx
+++ b/Desktop file/20220113/4pi.xlsx
@@ -412,10 +412,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,7 +424,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +754,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,38 +793,38 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="25"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="29"/>
       <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1425,16 +1425,16 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
+      <c r="N20" s="16">
+        <v>1</v>
+      </c>
+      <c r="O20" s="16">
+        <v>1</v>
+      </c>
+      <c r="P20" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="16">
         <v>1</v>
       </c>
       <c r="R20" s="13"/>
@@ -1455,16 +1455,16 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
+      <c r="N21" s="16">
+        <v>1</v>
+      </c>
+      <c r="O21" s="16">
+        <v>1</v>
+      </c>
+      <c r="P21" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="16">
         <v>1</v>
       </c>
       <c r="R21" s="13"/>
@@ -1608,34 +1608,34 @@
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <f>SUM(B24:E24)</f>
         <v>128</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="26">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25">
         <f t="shared" ref="F25" si="5">SUM(F24:I24)</f>
         <v>207</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="26">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="25">
         <f t="shared" ref="J25" si="6">SUM(J24:M24)</f>
         <v>176</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="26">
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="25">
         <f>SUM(N24:Q24)</f>
         <v>644</v>
       </c>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="28"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
       <c r="R25" s="6">
         <f t="shared" si="1"/>
         <v>1155</v>
@@ -1690,6 +1690,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -1698,14 +1706,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Desktop file/20220113/4pi.xlsx
+++ b/Desktop file/20220113/4pi.xlsx
@@ -127,17 +127,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -145,7 +145,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,21 +153,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +176,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,7 +184,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,8 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,23 +754,23 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="2" customWidth="1"/>
-    <col min="2" max="5" width="9.125" style="7"/>
-    <col min="6" max="6" width="9.125" style="2"/>
-    <col min="7" max="9" width="9.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="2"/>
-    <col min="11" max="13" width="9.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="2"/>
-    <col min="15" max="17" width="9.875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="9" width="9.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="13" width="9.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="17" width="9.85546875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="P1" s="22"/>
       <c r="Q1" s="23"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="14"/>
       <c r="B2" s="24" t="s">
         <v>6</v>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -914,7 +914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -947,7 +947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -980,20 +980,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="16">
         <v>42</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
         <v>0</v>
       </c>
       <c r="F7"/>
@@ -1013,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1227,16 +1227,16 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14">
+      <c r="N14" s="16">
         <v>64</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="16">
         <v>3</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
+      <c r="P14" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="16">
         <v>0</v>
       </c>
       <c r="R14" s="13">
@@ -1244,7 +1244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1359,16 +1359,16 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18">
+      <c r="N18" s="16">
         <v>183</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
         <v>5</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="16">
         <v>0</v>
       </c>
       <c r="R18" s="13">
@@ -1376,7 +1376,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
@@ -1485,21 +1485,21 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16">
+        <v>1</v>
+      </c>
+      <c r="P22" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="16">
         <v>1</v>
       </c>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -1641,51 +1641,51 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15.75" thickBot="1">
       <c r="A28" s="16"/>
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="17"/>
       <c r="B29" s="19">
         <v>44466</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15.75" thickTop="1">
       <c r="A30" s="20"/>
       <c r="B30" s="19">
         <v>44487</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32"/>
       <c r="B32" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="D38" s="2"/>
     </row>
   </sheetData>

--- a/Desktop file/20220113/4pi.xlsx
+++ b/Desktop file/20220113/4pi.xlsx
@@ -375,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,6 +430,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -754,7 +755,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:M1"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -829,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -881,7 +882,7 @@
       </c>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -894,7 +895,7 @@
       <c r="D4" s="16">
         <v>3</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="30">
         <v>0</v>
       </c>
       <c r="F4"/>
@@ -914,7 +915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -947,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -960,7 +961,7 @@
       <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="30">
         <v>0</v>
       </c>
       <c r="F6"/>
@@ -980,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
@@ -993,7 +994,7 @@
       <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="30">
         <v>0</v>
       </c>
       <c r="F7"/>
@@ -1013,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +1031,7 @@
       <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="30">
         <v>0</v>
       </c>
       <c r="J8"/>
@@ -1046,7 +1047,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1068,7 @@
       <c r="L9" s="16">
         <v>5</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="30">
         <v>0</v>
       </c>
       <c r="N9"/>
@@ -1079,7 +1080,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1101,7 @@
       <c r="L10" s="16">
         <v>1</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="30">
         <v>0</v>
       </c>
       <c r="N10"/>
@@ -1112,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1134,7 @@
       <c r="L11" s="16">
         <v>2</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="30">
         <v>0</v>
       </c>
       <c r="N11"/>
@@ -1145,7 +1146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +1163,7 @@
       <c r="H12" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12"/>
@@ -1178,7 +1179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1192,7 @@
       <c r="D13" s="16">
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="30">
         <v>0</v>
       </c>
       <c r="F13"/>
@@ -1211,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1237,7 @@
       <c r="P14" s="16">
         <v>1</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="30">
         <v>0</v>
       </c>
       <c r="R14" s="13">
@@ -1244,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1258,7 @@
       <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="30">
         <v>0</v>
       </c>
       <c r="F15"/>
@@ -1277,7 +1278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
@@ -1290,7 +1291,7 @@
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="30">
         <v>0</v>
       </c>
       <c r="F16"/>
@@ -1310,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1331,7 +1332,7 @@
       <c r="L17" s="16">
         <v>1</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="30">
         <v>0</v>
       </c>
       <c r="N17"/>
@@ -1343,7 +1344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1369,7 @@
       <c r="P18" s="16">
         <v>5</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="30">
         <v>0</v>
       </c>
       <c r="R18" s="13">
@@ -1376,7 +1377,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1402,7 @@
       <c r="P19" s="16">
         <v>5</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="30">
         <v>0</v>
       </c>
       <c r="R19" s="13">
@@ -1409,7 +1410,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1434,12 +1435,12 @@
       <c r="P20" s="16">
         <v>1</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="30">
         <v>1</v>
       </c>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
@@ -1464,12 +1465,12 @@
       <c r="P21" s="16">
         <v>1</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="30">
         <v>1</v>
       </c>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
@@ -1494,12 +1495,12 @@
       <c r="P22" s="16">
         <v>1</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="30">
         <v>1</v>
       </c>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="15.75" thickTop="1">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
